--- a/na-service/src/test/resources/func/parser/source/real/Source-Coconut.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/Source-Coconut.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>page</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>co-entry__title:EQUALS</t>
-  </si>
-  <si>
-    <t>today-news-link:EQUALS</t>
   </si>
   <si>
     <t>Animals</t>
@@ -192,10 +189,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <u/>
       <sz val="13.0"/>
       <color rgb="FF000000"/>
@@ -204,6 +197,10 @@
       <sz val="13.0"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <color theme="1"/>
@@ -240,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -254,16 +251,15 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -548,16 +544,16 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3"/>
@@ -590,11 +586,11 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="3"/>
@@ -620,13 +616,13 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1"/>
@@ -649,22 +645,22 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="3"/>
@@ -689,12 +685,12 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3"/>
@@ -718,19 +714,19 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4" t="s">
-        <v>16</v>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -750,20 +746,20 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
@@ -792,11 +788,11 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="3"/>
@@ -824,12 +820,12 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
@@ -852,23 +848,23 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="3"/>
@@ -890,19 +886,19 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -926,12 +922,12 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="3"/>
       <c r="J13" s="3"/>
@@ -953,23 +949,23 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="3"/>
@@ -991,19 +987,19 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1027,12 +1023,12 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4" t="s">
-        <v>16</v>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
@@ -1055,23 +1051,23 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J17" s="3"/>
@@ -1093,19 +1089,19 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1126,15 +1122,15 @@
     </row>
     <row r="19">
       <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4" t="s">
-        <v>16</v>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="1"/>
@@ -1157,23 +1153,23 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="3"/>
@@ -1195,19 +1191,19 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1231,12 +1227,12 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
@@ -1259,23 +1255,23 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="3"/>
@@ -1297,19 +1293,19 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="4" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1333,12 +1329,12 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="1"/>
@@ -1361,23 +1357,23 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="3"/>
@@ -1399,18 +1395,18 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="6" t="s">
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1434,12 +1430,12 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4" t="s">
-        <v>16</v>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
@@ -1462,23 +1458,23 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J29" s="3"/>
@@ -1500,18 +1496,18 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6" t="s">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1534,13 +1530,13 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4" t="s">
-        <v>16</v>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
@@ -1563,23 +1559,23 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="3"/>
@@ -1601,18 +1597,18 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="6" t="s">
+      <c r="A33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="6"/>
+      <c r="G33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -1636,12 +1632,12 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
@@ -1664,23 +1660,23 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J35" s="3"/>
@@ -1702,19 +1698,19 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="6" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="6"/>
+      <c r="G36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1738,12 +1734,12 @@
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="4" t="s">
-        <v>16</v>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
@@ -1766,23 +1762,23 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>38</v>
+      <c r="C38" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1791,11 +1787,11 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="3"/>
@@ -1823,12 +1819,12 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="4" t="s">
-        <v>16</v>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="1"/>
@@ -1851,23 +1847,23 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J41" s="3"/>
@@ -1893,11 +1889,11 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="3"/>
@@ -1925,12 +1921,12 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="4" t="s">
-        <v>16</v>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1"/>
@@ -1953,15 +1949,15 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -1985,8 +1981,8 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="1"/>
@@ -2013,8 +2009,8 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="1"/>
@@ -2037,15 +2033,15 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2069,8 +2065,8 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="1"/>
@@ -2097,8 +2093,8 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="1"/>
@@ -2121,15 +2117,15 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="1"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2153,8 +2149,8 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="1"/>
       <c r="H51" s="3"/>
       <c r="I51" s="1"/>
@@ -2181,8 +2177,8 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="1"/>
       <c r="H52" s="3"/>
       <c r="I52" s="1"/>
@@ -2209,8 +2205,8 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="1"/>
@@ -2237,8 +2233,8 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="1"/>
@@ -2261,15 +2257,15 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2293,8 +2289,8 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="1"/>
@@ -2321,8 +2317,8 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="1"/>
@@ -2345,15 +2341,15 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -2377,8 +2373,8 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="1"/>
       <c r="H59" s="3"/>
       <c r="I59" s="1"/>
@@ -2405,8 +2401,8 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="1"/>
       <c r="H60" s="3"/>
       <c r="I60" s="1"/>
@@ -2433,8 +2429,8 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="1"/>
@@ -2461,8 +2457,8 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="1"/>
@@ -2485,15 +2481,15 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
+      <c r="I63" s="1"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -2517,8 +2513,8 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="1"/>
@@ -2545,8 +2541,8 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="1"/>
@@ -2569,15 +2565,15 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
+      <c r="I66" s="1"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -2601,8 +2597,8 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="1"/>
@@ -2629,8 +2625,8 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="1"/>
@@ -2653,15 +2649,15 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
+      <c r="I69" s="1"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -2685,8 +2681,8 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="1"/>
@@ -2713,8 +2709,8 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="1"/>
@@ -2737,15 +2733,15 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
+      <c r="I72" s="1"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -2769,8 +2765,8 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="1"/>
@@ -2797,8 +2793,8 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="1"/>
@@ -2821,15 +2817,15 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
+      <c r="I75" s="1"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -2853,8 +2849,8 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="1"/>
       <c r="H76" s="3"/>
       <c r="I76" s="1"/>
@@ -2881,8 +2877,8 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="1"/>
       <c r="H77" s="3"/>
       <c r="I77" s="1"/>
@@ -2909,8 +2905,8 @@
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="1"/>
@@ -2937,8 +2933,8 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="1"/>
@@ -2961,15 +2957,15 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
+      <c r="I80" s="1"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -2993,8 +2989,8 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="1"/>
@@ -3021,8 +3017,8 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="1"/>
@@ -3045,14 +3041,14 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="D83" s="1"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="4"/>
+      <c r="I83" s="1"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -3076,8 +3072,8 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="1"/>
@@ -3104,8 +3100,8 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="1"/>
@@ -3128,15 +3124,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
+      <c r="I86" s="1"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -3160,8 +3156,8 @@
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="1"/>
@@ -3188,8 +3184,8 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="1"/>
@@ -3212,15 +3208,15 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="12"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="4"/>
+      <c r="I89" s="1"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -3244,8 +3240,8 @@
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="1"/>
@@ -3272,8 +3268,8 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="1"/>
@@ -3296,15 +3292,15 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
+      <c r="I92" s="1"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -3328,8 +3324,8 @@
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="1"/>
@@ -3356,8 +3352,8 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="1"/>
